--- a/plastics/baseline_model/Assumption log.xlsx
+++ b/plastics/baseline_model/Assumption log.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverlysaght/Desktop/Data Observatory/ce_observatory_data_scripts/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B04D8FF-549E-E54C-BFDB-1FE6C6D67A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2137F-1FB3-DF4E-96E1-D9CBE2C6A865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{6AE4AB53-7AD3-BF47-9045-6948528679BB}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{6AE4AB53-7AD3-BF47-9045-6948528679BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="3" r:id="rId1"/>
+    <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="Assumption log" sheetId="1" r:id="rId2"/>
     <sheet name="Data sources" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="235">
   <si>
     <t>date_of_last_update</t>
   </si>
@@ -539,9 +539,6 @@
     <t>ASSUMPTIONS LOG</t>
   </si>
   <si>
-    <t>DATA SOURCES</t>
-  </si>
-  <si>
     <t>Google search</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>DESCRIPTION OF DOCUMENTS FOR QA OF PLASTIC PACKAGING PAGE DATA OBSERVATORY</t>
-  </si>
-  <si>
     <t>Link/location</t>
   </si>
   <si>
@@ -587,12 +581,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>oliverlysaght@icloud.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sets out the calculation steps taken to populate all flows, baseline and forward-looking as well as the quality scores assigned to flows. Download the whole repository, open the R Project and run the baseline model scripts. Further instructions provided in the readme of the Github repository. </t>
   </si>
   <si>
@@ -717,13 +705,82 @@
   </si>
   <si>
     <t>https://github.com/OliverLysa/ce_observatory_data_scripts/blob/main/plastics/data_extraction_scripts/UK_stats_on_waste.R</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Contact(s)</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>Assumption Quality</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>High Quality</t>
+  </si>
+  <si>
+    <t>Reliable assumption, well understood and/or documented; anything up to a validated &amp; recent set of actual data.</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Quality </t>
+  </si>
+  <si>
+    <t>Some evidence to support the assumption; may vary from a source with poor methodology to a good source that is a few years old.</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Quality </t>
+  </si>
+  <si>
+    <t>Little evidence to support the assumption; may vary from an opinion to a limited data source with poor methodology.</t>
+  </si>
+  <si>
+    <t>Oliver Lysaght</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Description of QA documents for the plastic packaging page of the Data Observatory</t>
+  </si>
+  <si>
+    <t>Person who developed the assumption</t>
+  </si>
+  <si>
+    <t>DATA SOURCE LIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -837,21 +894,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0E2841"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -920,18 +1075,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD9A1ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9A2ED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1112,14 +1285,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1130,7 +1432,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1180,39 +1481,159 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Heading" xfId="4" xr:uid="{CAABA780-4EFB-0C4E-AC66-BD404D89F3D4}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{9FC41CC3-5909-DA48-944A-5E3860D4B2A1}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1254,6 +1675,42 @@
           <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1936,10 +2393,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{20F483C5-DF5C-DD4C-98AD-A6DD6D5710D9}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9A2ED"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1983,20 +2445,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF92024F-E45D-1B41-81FB-25899EED072F}" name="Tmpl_Tbl_AssumptionsLog4" displayName="Tmpl_Tbl_AssumptionsLog4" ref="B3:L17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="B3:L17" xr:uid="{FF92024F-E45D-1B41-81FB-25899EED072F}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{98766EC1-B9FF-244A-983E-6355705712A7}" name="Assumption ID" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{65AC7F99-D355-194E-8707-8CFA9B7AE104}" name="material relating to in the observatory" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{84536B12-0A0D-9643-BBF0-BC595AFA42B6}" name="product relating to in the observatory" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{48B6E147-CA39-9042-8575-88BA03EBC3CF}" name="Assumption description" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{C335E380-001F-2B41-B96D-1CAF93F7AEC7}" name="source(s) (ID used where source is listed in metadata catalogue, otherwise name)" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{6A327936-10F9-C143-9B5A-83D65D032D97}" name="Value chain stage(s) relating to" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{D9F08AFE-E575-8243-B1DD-3EBE45B72640}" name="used_in_baseline_model" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2034D0D6-CBF9-524E-9ED6-192763E2E0B8}" name="Link to scripts" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{D4F6B77C-F1CC-D44B-A41C-968D15E241CD}" name="date_of_last_update" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{8E58425E-EBD6-F940-A950-0C7442964656}" name="quality_rating_RAG (1-4 scoring, with 4 highest)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{953B85DA-26E8-D24D-A563-B229D8D31081}" name="impact_rating (Low/Medium/High - based on relative effect on tonnages in a given year)" dataDxfId="7" totalsRowDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF92024F-E45D-1B41-81FB-25899EED072F}" name="Tmpl_Tbl_AssumptionsLog4" displayName="Tmpl_Tbl_AssumptionsLog4" ref="B8:M22" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30">
+  <autoFilter ref="B8:M22" xr:uid="{FF92024F-E45D-1B41-81FB-25899EED072F}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{98766EC1-B9FF-244A-983E-6355705712A7}" name="Assumption ID" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{65AC7F99-D355-194E-8707-8CFA9B7AE104}" name="material relating to in the observatory" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="17" xr3:uid="{84536B12-0A0D-9643-BBF0-BC595AFA42B6}" name="product relating to in the observatory" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{48B6E147-CA39-9042-8575-88BA03EBC3CF}" name="Assumption description" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{C335E380-001F-2B41-B96D-1CAF93F7AEC7}" name="source(s) (ID used where source is listed in metadata catalogue, otherwise name)" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FCB396DB-C365-8E48-8312-192BC77F05A1}" name="Person who developed the assumption" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{6A327936-10F9-C143-9B5A-83D65D032D97}" name="Value chain stage(s) relating to" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{D9F08AFE-E575-8243-B1DD-3EBE45B72640}" name="used_in_baseline_model" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{2034D0D6-CBF9-524E-9ED6-192763E2E0B8}" name="Link to scripts" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{D4F6B77C-F1CC-D44B-A41C-968D15E241CD}" name="date_of_last_update" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{8E58425E-EBD6-F940-A950-0C7442964656}" name="quality_rating_RAG (1-4 scoring, with 4 highest)" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{953B85DA-26E8-D24D-A563-B229D8D31081}" name="impact_rating (Low/Medium/High - based on relative effect on tonnages in a given year)" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2319,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF45D72-DBF4-724D-AE2F-7103B0144E33}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2332,317 +2795,354 @@
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" s="72" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:10" s="73" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="44" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="11" t="s">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C13" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>171</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+    </row>
+    <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="62">
+        <v>1</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="62"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3760A452-D596-E64E-B038-6DBF2EEB2DF0}"/>
-  </hyperlinks>
+  <protectedRanges>
+    <protectedRange sqref="C5:E5" name="Range1"/>
+  </protectedRanges>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15A3CC-7753-C74A-9254-02ABDB4F5955}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="76" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14" t="s">
+    <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G8" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="39">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K5" s="40">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="50">
-        <v>2</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="50">
-        <v>2</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="50">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -2650,34 +3150,37 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="E9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="38">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -2686,33 +3189,36 @@
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K10" s="40">
-        <v>3</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -2721,33 +3227,36 @@
         <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="40">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -2756,33 +3265,36 @@
         <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="40">
-        <v>3</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>16</v>
@@ -2791,33 +3303,36 @@
         <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="50">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -2826,33 +3341,36 @@
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="40">
-        <v>3</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
@@ -2861,33 +3379,36 @@
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="50">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -2896,33 +3417,36 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="40">
-        <v>3</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
@@ -2931,33 +3455,229 @@
         <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F17" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="F18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="38">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>164</v>
+      <c r="L18" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="E9">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -2985,7 +3705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F9:G9 G10:G22">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -3007,7 +3727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5">
+  <conditionalFormatting sqref="F9:G9 F10 G10:G22">
     <cfRule type="cellIs" dxfId="3" priority="57" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3015,7 +3735,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F10">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -3037,7 +3757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
+  <conditionalFormatting sqref="F15:F18">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -3059,7 +3779,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F17">
+  <conditionalFormatting sqref="F15:F22">
     <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3067,7 +3787,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
+  <conditionalFormatting sqref="F16:F19">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -3089,7 +3809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -3111,7 +3831,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="F21">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -3133,7 +3853,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -3155,13 +3875,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6" xr:uid="{C24B39F4-8A90-EE41-A2EC-7AB0F161E197}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H11" xr:uid="{C24B39F4-8A90-EE41-A2EC-7AB0F161E197}">
       <formula1>quality_list</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="https://github.com/OliverLysa/ce_observatory_data_scripts/blob/main/plastics/baseline_model/01_placed_on_market.R" xr:uid="{0F9E005E-8E01-7045-B3AF-178F6F747844}"/>
+    <hyperlink ref="J10" r:id="rId1" display="https://github.com/OliverLysa/ce_observatory_data_scripts/blob/main/plastics/baseline_model/01_placed_on_market.R" xr:uid="{0F9E005E-8E01-7045-B3AF-178F6F747844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3175,980 +3895,980 @@
   <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="8"/>
-    <col min="4" max="4" width="47.1640625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="3" width="10.83203125" style="7"/>
+    <col min="4" max="4" width="47.1640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE3" s="6"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="29">
+        <v>90</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>90</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="29">
+        <v>100</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>100</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="29">
+        <v>60</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>60</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" s="27">
+        <v>2</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="29">
+        <v>95</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>95</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="29">
+        <v>100</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>100</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B9" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="29">
+        <v>100</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>100</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="V9" s="27">
+        <v>1</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B10" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="D10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="29">
+        <v>100</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>100</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="27">
+        <v>2018</v>
+      </c>
+      <c r="V10" s="27">
+        <v>2</v>
+      </c>
+      <c r="W10" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="29">
+        <v>100</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>100</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" s="27">
+        <v>2010</v>
+      </c>
+      <c r="V11" s="27">
+        <v>8</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="D12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F12" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" s="29">
+        <v>90</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>90</v>
+      </c>
+      <c r="R12" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" s="27">
+        <v>2</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="I13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="30">
+      <c r="M13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="29">
         <v>90</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="30">
+      <c r="P13" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="29">
         <v>90</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="28" t="s">
+      <c r="S13" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="28">
-        <v>1</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="28" t="s">
+      <c r="U13" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="V13" s="27">
+        <v>2</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="28" t="s">
+      <c r="Z13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA13" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="30">
-        <v>100</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="30">
-        <v>100</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AB13" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="AC5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="30">
-        <v>60</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>60</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="V6" s="28">
-        <v>2</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="30">
-        <v>95</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>95</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="V7" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA7" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="30">
-        <v>100</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>100</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="V8" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="X8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB8" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="30">
-        <v>100</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>100</v>
-      </c>
-      <c r="R9" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="V9" s="28">
-        <v>1</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z9" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB9" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD9" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="30">
-        <v>100</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>100</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" s="28">
-        <v>2018</v>
-      </c>
-      <c r="V10" s="28">
-        <v>2</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB10" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD10" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="30">
-        <v>100</v>
-      </c>
-      <c r="P11" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>100</v>
-      </c>
-      <c r="R11" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="28">
-        <v>2010</v>
-      </c>
-      <c r="V11" s="28">
-        <v>8</v>
-      </c>
-      <c r="W11" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="X11" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA11" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD11" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="30">
-        <v>90</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>90</v>
-      </c>
-      <c r="R12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T12" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="V12" s="28">
-        <v>2</v>
-      </c>
-      <c r="W12" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB12" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD12" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="30">
-        <v>90</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q13" s="30">
-        <v>90</v>
-      </c>
-      <c r="R13" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="T13" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="V13" s="28">
-        <v>2</v>
-      </c>
-      <c r="W13" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="X13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA13" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC13" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD13" s="28" t="s">
+      <c r="AC13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="27" t="s">
         <v>102</v>
       </c>
     </row>
